--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YogeshSuryawanshi\Downloads\Invoice Project Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YogeshSuryawanshi\Documents\UiPath\InvoiceProject_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB0993-4D16-4214-AA76-2C822FA6E7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA712DFD-EC68-400D-A499-43FCBF7A5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,13 +171,13 @@
     <t>TemplatePath</t>
   </si>
   <si>
-    <t>C:\Users\YogeshSuryawanshi\Downloads\Invoice Project Performer\Data\Input\ItemsToClaim_Template.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\YogeshSuryawanshi\Downloads\Invoice Project Performer\Data\Output\</t>
-  </si>
-  <si>
     <t>Invoice_Process</t>
+  </si>
+  <si>
+    <t>C:\Users\YogeshSuryawanshi\Documents\UiPath\InvoiceProject_Performer\Data\Output\</t>
+  </si>
+  <si>
+    <t>C:\Users\YogeshSuryawanshi\Documents\UiPath\InvoiceProject_Performer\Data\Input\ItemsToClaim_Template.xlsx</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -606,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -654,7 +654,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YogeshSuryawanshi\Documents\UiPath\InvoiceProject_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA712DFD-EC68-400D-A499-43FCBF7A5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD9A5E-5CDA-473A-A9B1-0D47F19DAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
